--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3649.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3649.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.454436453350318</v>
+        <v>1.821893095970154</v>
       </c>
       <c r="B1">
-        <v>1.549745978445139</v>
+        <v>2.100561618804932</v>
       </c>
       <c r="C1">
-        <v>1.681204674716482</v>
+        <v>1.954269766807556</v>
       </c>
       <c r="D1">
-        <v>2.412840212835859</v>
+        <v>1.201654434204102</v>
       </c>
       <c r="E1">
-        <v>5.089624957838462</v>
+        <v>0.7704174518585205</v>
       </c>
     </row>
   </sheetData>
